--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-521848.8708903084</v>
+        <v>-523736.4524067104</v>
       </c>
     </row>
     <row r="7">
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>279.5364382770885</v>
       </c>
       <c r="G2" t="n">
-        <v>158.8057510663583</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>139.8939792152983</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>31.40574271837819</v>
       </c>
     </row>
     <row r="5">
@@ -911,10 +911,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>32.95333919301032</v>
       </c>
       <c r="S5" t="n">
-        <v>162.7861605590471</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>46.41927091106029</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>122.5935461816079</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1148,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1181,22 +1181,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>46.44738214266422</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>112.9856999467131</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>142.5677531302082</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>67.50277873744447</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>252.1107583741781</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274164</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151916</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>177.5178803775513</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,10 +1901,10 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>25.50533543111263</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>281.2233475240307</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2527,10 +2527,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151919</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>161.1706059301396</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>98.13489850023161</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801213</v>
+        <v>91.23070601801221</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.0297657647745175</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897908</v>
+        <v>93.71057173897917</v>
       </c>
       <c r="I31" t="n">
-        <v>42.66059551718119</v>
+        <v>55.21598883571502</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523575</v>
+        <v>54.76109577523583</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
         <v>196.934386695271</v>
@@ -3013,7 +3013,7 @@
         <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
         <v>163.3813967235378</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463134</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069502</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463134</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>976.0491016702019</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>607.0865847297903</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="D2" t="n">
-        <v>607.0865847297903</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="E2" t="n">
-        <v>221.298332131546</v>
+        <v>907.7328045908137</v>
       </c>
       <c r="F2" t="n">
-        <v>214.3528313823426</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1739.654191907093</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1366.188433646014</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>976.0491016702019</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.250031532787</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C4" t="n">
-        <v>195.250031532787</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D4" t="n">
-        <v>195.250031532787</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E4" t="n">
-        <v>195.250031532787</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>195.250031532787</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>195.250031532787</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782191</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U4" t="n">
-        <v>195.250031532787</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V4" t="n">
-        <v>195.250031532787</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="W4" t="n">
-        <v>195.250031532787</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="X4" t="n">
-        <v>195.250031532787</v>
+        <v>243.4143268306406</v>
       </c>
       <c r="Y4" t="n">
-        <v>195.250031532787</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2663.862889813161</v>
       </c>
       <c r="S5" t="n">
-        <v>2532.718625807064</v>
+        <v>2663.862889813161</v>
       </c>
       <c r="T5" t="n">
-        <v>2532.718625807064</v>
+        <v>2445.228222785224</v>
       </c>
       <c r="U5" t="n">
-        <v>2278.956840445156</v>
+        <v>2445.228222785224</v>
       </c>
       <c r="V5" t="n">
-        <v>1947.893953101585</v>
+        <v>2445.228222785224</v>
       </c>
       <c r="W5" t="n">
-        <v>1947.893953101585</v>
+        <v>2445.228222785224</v>
       </c>
       <c r="X5" t="n">
-        <v>1574.428194840505</v>
+        <v>2445.228222785224</v>
       </c>
       <c r="Y5" t="n">
-        <v>1574.428194840505</v>
+        <v>2055.088890809413</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.6879402326646</v>
+        <v>437.5354894428046</v>
       </c>
       <c r="C7" t="n">
-        <v>325.6879402326646</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="D7" t="n">
-        <v>325.6879402326646</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E7" t="n">
-        <v>177.7748466502715</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629043</v>
+        <v>484.4236418782191</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1780.41262192169</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2595.203853929863</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2376.569186901926</v>
       </c>
       <c r="U8" t="n">
-        <v>2133.181277191804</v>
+        <v>2122.807401540017</v>
       </c>
       <c r="V8" t="n">
-        <v>2133.181277191804</v>
+        <v>2122.807401540017</v>
       </c>
       <c r="W8" t="n">
-        <v>1780.41262192169</v>
+        <v>2122.807401540017</v>
       </c>
       <c r="X8" t="n">
-        <v>1780.41262192169</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y8" t="n">
-        <v>1780.41262192169</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,10 +4893,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>369.8327295799424</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D10" t="n">
-        <v>369.8327295799424</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5124,13 +5124,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864554</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>2013.406634128704</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>506.0596387883053</v>
+        <v>484.4545387878461</v>
       </c>
       <c r="C13" t="n">
-        <v>506.0596387883054</v>
+        <v>315.5183558599392</v>
       </c>
       <c r="D13" t="n">
-        <v>506.0596387883054</v>
+        <v>165.4017164476035</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883054</v>
+        <v>165.4017164476035</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5203,7 +5203,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471194</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1244.258938866813</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.258938866813</v>
+        <v>933.2366688293936</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8417688298528</v>
+        <v>933.2366688293936</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8522179318354</v>
+        <v>705.2471179313762</v>
       </c>
       <c r="Y13" t="n">
-        <v>506.0596387883053</v>
+        <v>484.4545387878461</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5309,19 +5309,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277035</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341677</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028587</v>
@@ -5434,16 +5434,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>755.1831334811264</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>755.1831334811264</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>575.8721432007717</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>575.8721432007717</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5516,25 +5516,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5549,7 +5549,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
@@ -5580,40 +5580,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1595.645765494012</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1925.508393158045</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2205.048458376742</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2410.070939158951</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>754.8946022306078</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C19" t="n">
-        <v>585.9584193027009</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D19" t="n">
-        <v>585.9584193027009</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E19" t="n">
-        <v>438.0453257203078</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F19" t="n">
-        <v>291.1553782223973</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G19" t="n">
-        <v>122.9800565422178</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H19" t="n">
-        <v>122.9800565422178</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>1044.311772267568</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>754.8946022306078</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>754.8946022306078</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="Y19" t="n">
-        <v>754.8946022306078</v>
+        <v>97.21709146028586</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5738,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5759,19 +5759,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,7 +5926,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557903</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531122</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1379.229518531122</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765192</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706324</v>
+        <v>835.4163915387937</v>
       </c>
       <c r="W22" t="n">
-        <v>247.3337308726216</v>
+        <v>545.9992215018332</v>
       </c>
       <c r="X22" t="n">
-        <v>247.3337308726216</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6084,10 +6084,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6175,22 +6175,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
         <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W25" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,13 +6212,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>416.2699138005285</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028586</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028586</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6412,22 +6412,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>1336.117678709276</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W28" t="n">
-        <v>1046.700508672316</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X28" t="n">
-        <v>818.7109577742983</v>
+        <v>597.4588864227617</v>
       </c>
       <c r="Y28" t="n">
-        <v>597.9183786307682</v>
+        <v>597.4588864227617</v>
       </c>
     </row>
     <row r="29">
@@ -6440,40 +6440,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6558,10 +6558,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542176</v>
+        <v>565.420029503086</v>
       </c>
       <c r="C31" t="n">
-        <v>439.5324299542176</v>
+        <v>452.2447118565495</v>
       </c>
       <c r="D31" t="n">
-        <v>439.5324299542176</v>
+        <v>452.2447118565495</v>
       </c>
       <c r="E31" t="n">
-        <v>347.3802016531954</v>
+        <v>360.0924835555276</v>
       </c>
       <c r="F31" t="n">
-        <v>347.3802016531954</v>
+        <v>360.0624171264624</v>
       </c>
       <c r="G31" t="n">
-        <v>234.9657452543868</v>
+        <v>247.6479607276537</v>
       </c>
       <c r="H31" t="n">
-        <v>140.3086020837012</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667506</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962048</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6649,22 +6649,22 @@
         <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818925</v>
+        <v>902.6804289818921</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652459</v>
+        <v>730.4517433652454</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030865</v>
+        <v>565.420029503086</v>
       </c>
     </row>
     <row r="32">
@@ -6677,28 +6677,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514085</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6780,25 +6780,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>953.6472828615139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6877,13 +6877,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,10 +6923,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,13 +6935,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649693</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,52 +7172,52 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7242,7 +7242,7 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
         <v>125.4002551675024</v>
@@ -7251,16 +7251,16 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028583</v>
@@ -7333,7 +7333,7 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7436,22 +7436,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982975</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8772,16 +8772,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>38.86002301949884</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229573</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>116.9087390531954</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>423.337678916511</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>297.2466435761028</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298108</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>77.91826928548677</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>34.12659402439928</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23704,19 +23704,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>82.39383318338569</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>48.19177501148584</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,25 +23890,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>84.91391003315934</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24175,10 +24175,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>79.43092547709092</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>5.299650812560344</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24652,22 +24652,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>90.96703739368843</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>127.5747568888055</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965531</v>
+        <v>93.4122163896554</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943742</v>
+        <v>90.18802562959978</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>12.55539331853374</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1214383.181099411</v>
+        <v>1214383.18109941</v>
       </c>
     </row>
     <row r="12">
@@ -26320,13 +26320,13 @@
         <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
-        <v>215065.9828557399</v>
+        <v>215065.9828557398</v>
       </c>
       <c r="F2" t="n">
         <v>215065.9828557399</v>
       </c>
       <c r="G2" t="n">
-        <v>215065.9828557399</v>
+        <v>215065.9828557398</v>
       </c>
       <c r="H2" t="n">
         <v>215065.9828557398</v>
@@ -26338,10 +26338,10 @@
         <v>215065.9828557399</v>
       </c>
       <c r="K2" t="n">
-        <v>223752.1755398985</v>
+        <v>223752.1755398986</v>
       </c>
       <c r="L2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.4867126782</v>
       </c>
       <c r="M2" t="n">
         <v>225786.4867126781</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284556</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086689</v>
+        <v>10342.90680086695</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284556</v>
       </c>
     </row>
     <row r="4">
@@ -26427,28 +26427,28 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
+        <v>15045.66962143906</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15045.66962143911</v>
+      </c>
+      <c r="H4" t="n">
         <v>15045.6696214391</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15045.66962143909</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563562</v>
+        <v>33210.29213563559</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="N4" t="n">
         <v>37464.45686275963</v>
@@ -26470,16 +26470,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26494,7 +26494,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-603815.4288164986</v>
+        <v>-603815.4288164985</v>
       </c>
       <c r="C6" t="n">
-        <v>-13847.54960195407</v>
+        <v>-13847.54960195409</v>
       </c>
       <c r="D6" t="n">
-        <v>-13847.54960195407</v>
+        <v>-13847.54960195415</v>
       </c>
       <c r="E6" t="n">
-        <v>-417127.0491913118</v>
+        <v>-417224.5083172842</v>
       </c>
       <c r="F6" t="n">
-        <v>108032.987285584</v>
+        <v>107935.528159612</v>
       </c>
       <c r="G6" t="n">
-        <v>108032.9872855842</v>
+        <v>107935.5281596118</v>
       </c>
       <c r="H6" t="n">
-        <v>108032.9872855841</v>
+        <v>107935.5281596119</v>
       </c>
       <c r="I6" t="n">
-        <v>108032.9872855843</v>
+        <v>107935.5281596119</v>
       </c>
       <c r="J6" t="n">
-        <v>-68390.23190700877</v>
+        <v>-68487.69103298101</v>
       </c>
       <c r="K6" t="n">
-        <v>49751.0695711945</v>
+        <v>49732.57583326027</v>
       </c>
       <c r="L6" t="n">
-        <v>80264.01722902629</v>
+        <v>80264.01722902626</v>
       </c>
       <c r="M6" t="n">
-        <v>-44194.09120394397</v>
+        <v>-44194.09120394404</v>
       </c>
       <c r="N6" t="n">
-        <v>90606.92402989313</v>
+        <v>90606.9240298931</v>
       </c>
       <c r="O6" t="n">
-        <v>90606.92402989317</v>
+        <v>90606.92402989311</v>
       </c>
       <c r="P6" t="n">
-        <v>46444.31872704752</v>
+        <v>46444.31872704758</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26747,13 +26747,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26765,16 +26765,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108361</v>
+        <v>12.92863350108368</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855694</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855696</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>127.339607464623</v>
       </c>
       <c r="G2" t="n">
-        <v>254.9784189544366</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>16.2769096264968</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>187.1789106337166</v>
       </c>
     </row>
     <row r="5">
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>21.52506338180137</v>
       </c>
       <c r="S5" t="n">
-        <v>11.62955224992444</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>133.412709270877</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>22.82750184132331</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>127.9683306663073</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>138.2384675615762</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28059,7 +28059,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>109.5698901936198</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28621,10 +28621,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855696</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32236,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,37 +32473,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35492,16 +35492,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>321.223725260607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315247</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>204.9217718382696</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36613,7 +36613,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R26" t="n">
         <v>59.8253897034981</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412257</v>
+        <v>67.71102679412249</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004318</v>
+        <v>94.42895660043172</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>546.5043485321271</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
